--- a/WindowsApplication1/WindowsApplication1/Template/template.xlsx
+++ b/WindowsApplication1/WindowsApplication1/Template/template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -11,13 +11,24 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="2">
+  <si>
+    <t>fsdfsdfsdf</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,7 +162,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -186,7 +196,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -362,30 +371,678 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -401,7 +1058,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -417,7 +1074,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -433,7 +1090,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -455,12 +1112,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
